--- a/data/trans_orig/P1428-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1428-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>161576</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>140174</v>
+        <v>139796</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>186134</v>
+        <v>183752</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1566077409915748</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1358641916743785</v>
+        <v>0.1354975439523813</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1804104074920257</v>
+        <v>0.1781021471618511</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>450</v>
@@ -765,19 +765,19 @@
         <v>464147</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>429440</v>
+        <v>429720</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>499405</v>
+        <v>499975</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3529334240930425</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3265424075176141</v>
+        <v>0.3267555530819972</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3797427535095645</v>
+        <v>0.3801760841775049</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>623</v>
@@ -786,19 +786,19 @@
         <v>625723</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>583942</v>
+        <v>581755</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>666904</v>
+        <v>665000</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2666241392088574</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2488211429549137</v>
+        <v>0.2478892377477557</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2841716887687442</v>
+        <v>0.2833603008426628</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>870147</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>845589</v>
+        <v>847971</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>891549</v>
+        <v>891927</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8433922590084252</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8195895925079743</v>
+        <v>0.8218978528381489</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8641358083256214</v>
+        <v>0.8645024560476188</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>841</v>
@@ -836,19 +836,19 @@
         <v>850966</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>815708</v>
+        <v>815138</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>885673</v>
+        <v>885393</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6470665759069576</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6202572464904356</v>
+        <v>0.6198239158224951</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.673457592482386</v>
+        <v>0.6732444469180028</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1706</v>
@@ -857,19 +857,19 @@
         <v>1721112</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1679931</v>
+        <v>1681835</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1762893</v>
+        <v>1765080</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7333758607911427</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7158283112312557</v>
+        <v>0.7166396991573372</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7511788570450861</v>
+        <v>0.7521107622522444</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>61310</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46736</v>
+        <v>47082</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>79386</v>
+        <v>80037</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03620485463147981</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02759857452966359</v>
+        <v>0.02780329336820214</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04687917309461246</v>
+        <v>0.04726349194487582</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>103</v>
@@ -982,19 +982,19 @@
         <v>106592</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>88264</v>
+        <v>86732</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>128699</v>
+        <v>127730</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06713749658005945</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0555932814046867</v>
+        <v>0.05462815956795426</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08106151318804339</v>
+        <v>0.08045106645790966</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>163</v>
@@ -1003,19 +1003,19 @@
         <v>167902</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>143392</v>
+        <v>143400</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>197681</v>
+        <v>196826</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.051172742673304</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04370271826566327</v>
+        <v>0.04370493057146007</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06024862875526282</v>
+        <v>0.05998801007799782</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1632103</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1614027</v>
+        <v>1613376</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1646677</v>
+        <v>1646331</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9637951453685202</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9531208269053875</v>
+        <v>0.9527365080551242</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9724014254703364</v>
+        <v>0.9721967066317978</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1451</v>
@@ -1053,19 +1053,19 @@
         <v>1481081</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1458974</v>
+        <v>1459943</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1499409</v>
+        <v>1500941</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9328625034199406</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9189384868119566</v>
+        <v>0.9195489335420903</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9444067185953132</v>
+        <v>0.9453718404320457</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3040</v>
@@ -1074,19 +1074,19 @@
         <v>3113184</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3083405</v>
+        <v>3084260</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3137694</v>
+        <v>3137686</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.948827257326696</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9397513712447374</v>
+        <v>0.9400119899220021</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9562972817343371</v>
+        <v>0.9562950694285393</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>13672</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6943</v>
+        <v>7167</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23301</v>
+        <v>24325</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02479496113867557</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01259140797711309</v>
+        <v>0.01299835816963241</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04225661785528402</v>
+        <v>0.04411380511740162</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -1199,19 +1199,19 @@
         <v>25814</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17450</v>
+        <v>17220</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38001</v>
+        <v>38533</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05418374257238744</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03662820836919008</v>
+        <v>0.03614422736096473</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07976423361490846</v>
+        <v>0.08088209391360954</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -1220,19 +1220,19 @@
         <v>39486</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27782</v>
+        <v>28712</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53527</v>
+        <v>54544</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03841715499380392</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02703002539148057</v>
+        <v>0.02793466358681097</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05207851286718517</v>
+        <v>0.05306784180238325</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>537736</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>528107</v>
+        <v>527083</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>544465</v>
+        <v>544241</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9752050388613245</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9577433821447158</v>
+        <v>0.9558861948825983</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9874085920228869</v>
+        <v>0.9870016418303675</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>428</v>
@@ -1270,19 +1270,19 @@
         <v>450598</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>438411</v>
+        <v>437879</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>458962</v>
+        <v>459192</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9458162574276126</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9202357663850913</v>
+        <v>0.9191179060863903</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9633717916308099</v>
+        <v>0.9638557726390351</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>943</v>
@@ -1291,19 +1291,19 @@
         <v>988334</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>974293</v>
+        <v>973276</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1000038</v>
+        <v>999108</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9615828450061961</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9479214871328148</v>
+        <v>0.9469321581976168</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9729699746085194</v>
+        <v>0.972065336413189</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>236558</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>209927</v>
+        <v>210127</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>267546</v>
+        <v>267896</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07219732892719168</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06406954489756009</v>
+        <v>0.06413061285923058</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08165505232821464</v>
+        <v>0.08176167258760013</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>577</v>
@@ -1416,19 +1416,19 @@
         <v>596553</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>550395</v>
+        <v>552080</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>642059</v>
+        <v>639371</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1765370015432699</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1628775106410049</v>
+        <v>0.1633761469108818</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1900033468796852</v>
+        <v>0.1892079933498254</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>822</v>
@@ -1437,19 +1437,19 @@
         <v>833111</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>779808</v>
+        <v>784316</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>882779</v>
+        <v>886734</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1251718002122634</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1171632283447291</v>
+        <v>0.1178405539583509</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1326341441417195</v>
+        <v>0.1332283780522775</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3039985</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3008997</v>
+        <v>3008647</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3066616</v>
+        <v>3066416</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9278026710728083</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9183449476717856</v>
+        <v>0.9182383274123997</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9359304551024399</v>
+        <v>0.9358693871407694</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2720</v>
@@ -1487,19 +1487,19 @@
         <v>2782644</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2737138</v>
+        <v>2739826</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2828802</v>
+        <v>2827117</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8234629984567301</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8099966531203148</v>
+        <v>0.8107920066501748</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8371224893589951</v>
+        <v>0.8366238530891182</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5689</v>
@@ -1508,19 +1508,19 @@
         <v>5822630</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5772962</v>
+        <v>5769007</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5875933</v>
+        <v>5871425</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8748281997877366</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8673658558582805</v>
+        <v>0.8667716219477226</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8828367716552709</v>
+        <v>0.8821594460416493</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>113469</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>92732</v>
+        <v>94207</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>133976</v>
+        <v>134905</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1164210054545464</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09514413543227919</v>
+        <v>0.09665765936961195</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1374612197807888</v>
+        <v>0.138414869265971</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>309</v>
@@ -1872,19 +1872,19 @@
         <v>330578</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>300815</v>
+        <v>299947</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>365156</v>
+        <v>362577</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.247106432611691</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2248586937452542</v>
+        <v>0.224209635923772</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2729529950824233</v>
+        <v>0.2710251407566012</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>414</v>
@@ -1893,19 +1893,19 @@
         <v>444047</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>407374</v>
+        <v>405712</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>486304</v>
+        <v>484443</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.192025365617175</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1761663022763066</v>
+        <v>0.1754474051672885</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2102990747004906</v>
+        <v>0.2094943791351958</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>861174</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>840667</v>
+        <v>839738</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>881911</v>
+        <v>880436</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8835789945454536</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8625387802192113</v>
+        <v>0.861585130734029</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9048558645677209</v>
+        <v>0.9033423406303881</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>938</v>
@@ -1943,19 +1943,19 @@
         <v>1007219</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>972641</v>
+        <v>975220</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1036982</v>
+        <v>1037850</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.752893567388309</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7270470049175767</v>
+        <v>0.7289748592433988</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7751413062547458</v>
+        <v>0.7757903640762279</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1741</v>
@@ -1964,19 +1964,19 @@
         <v>1868393</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1826136</v>
+        <v>1827997</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1905066</v>
+        <v>1906728</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.807974634382825</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7897009252995087</v>
+        <v>0.7905056208648037</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.823833697723693</v>
+        <v>0.8245525948327114</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>51435</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37772</v>
+        <v>38741</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68508</v>
+        <v>68597</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02618929920566475</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01923250218131967</v>
+        <v>0.01972583921977184</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03488267748144436</v>
+        <v>0.0349280223425749</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -2089,19 +2089,19 @@
         <v>86046</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>66967</v>
+        <v>66804</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>105695</v>
+        <v>107434</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04904071515971499</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03816642801463568</v>
+        <v>0.03807404523787276</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06023916046292714</v>
+        <v>0.06123014662235417</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>122</v>
@@ -2110,19 +2110,19 @@
         <v>137481</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>115033</v>
+        <v>113992</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>164579</v>
+        <v>164591</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03697170583323901</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03093481023400265</v>
+        <v>0.03065484014263942</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04425904552604542</v>
+        <v>0.04426220909466666</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1912522</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1895449</v>
+        <v>1895360</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1926185</v>
+        <v>1925216</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9738107007943353</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9651173225185556</v>
+        <v>0.9650719776574251</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9807674978186804</v>
+        <v>0.9802741607802281</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1558</v>
@@ -2160,19 +2160,19 @@
         <v>1668546</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1648897</v>
+        <v>1647158</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1687625</v>
+        <v>1687788</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.950959284840285</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9397608395370728</v>
+        <v>0.938769853377646</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9618335719853643</v>
+        <v>0.9619259547621273</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3367</v>
@@ -2181,19 +2181,19 @@
         <v>3581068</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3553970</v>
+        <v>3553958</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3603516</v>
+        <v>3604557</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9630282941667609</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9557409544739546</v>
+        <v>0.9557377909053333</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9690651897659973</v>
+        <v>0.9693451598573606</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>11400</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5253</v>
+        <v>5174</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20990</v>
+        <v>23328</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02369203155203124</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01091751409711927</v>
+        <v>0.01075232067189575</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0436224804723848</v>
+        <v>0.04848115061775221</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -2306,19 +2306,19 @@
         <v>22944</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14191</v>
+        <v>14332</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35260</v>
+        <v>35214</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05002706645898209</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03094291569865594</v>
+        <v>0.03124997112113027</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07688078919796598</v>
+        <v>0.07678176369878618</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -2327,19 +2327,19 @@
         <v>34344</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23094</v>
+        <v>23030</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49547</v>
+        <v>48447</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03654360075021935</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02457290513484447</v>
+        <v>0.02450452941333743</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05272002141719742</v>
+        <v>0.05154960065545131</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>469781</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>460191</v>
+        <v>457853</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>475928</v>
+        <v>476007</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9763079684479687</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9563775195276156</v>
+        <v>0.951518849382248</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9890824859028808</v>
+        <v>0.9892476793281045</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>392</v>
@@ -2377,19 +2377,19 @@
         <v>435687</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>423371</v>
+        <v>423417</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>444440</v>
+        <v>444299</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9499729335410179</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9231192108020345</v>
+        <v>0.9232182363012147</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9690570843013441</v>
+        <v>0.9687500288788699</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>822</v>
@@ -2398,19 +2398,19 @@
         <v>905469</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>890266</v>
+        <v>891366</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>916719</v>
+        <v>916783</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9634563992497807</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9472799785828026</v>
+        <v>0.9484503993445484</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9754270948651554</v>
+        <v>0.9754954705866624</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>176304</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>150596</v>
+        <v>151566</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>204482</v>
+        <v>207161</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05155409343879485</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04403686950778603</v>
+        <v>0.0443202887426218</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05979381903400485</v>
+        <v>0.06057711211992495</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>404</v>
@@ -2523,19 +2523,19 @@
         <v>439569</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>400950</v>
+        <v>398633</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>482875</v>
+        <v>482823</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1237865715097195</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1129111121837072</v>
+        <v>0.1122586173576994</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1359821264019572</v>
+        <v>0.1359673453353193</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>564</v>
@@ -2544,19 +2544,19 @@
         <v>615872</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>567651</v>
+        <v>569639</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>667588</v>
+        <v>667894</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0883502851961574</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08143269099477482</v>
+        <v>0.0817178294374046</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09576921625735887</v>
+        <v>0.09581308314993311</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3243478</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3215300</v>
+        <v>3212621</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3269186</v>
+        <v>3268216</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9484459065612052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9402061809659952</v>
+        <v>0.9394228878800747</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9559631304922139</v>
+        <v>0.9556797112573778</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2888</v>
@@ -2594,19 +2594,19 @@
         <v>3111451</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3068145</v>
+        <v>3068197</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3150070</v>
+        <v>3152387</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8762134284902805</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8640178735980426</v>
+        <v>0.8640326546646802</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8870888878162926</v>
+        <v>0.8877413826423005</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5930</v>
@@ -2615,19 +2615,19 @@
         <v>6354929</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6303213</v>
+        <v>6302907</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6403150</v>
+        <v>6401162</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9116497148038426</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9042307837426411</v>
+        <v>0.9041869168500665</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.918567309005225</v>
+        <v>0.9182821705625954</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>60554</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46997</v>
+        <v>48003</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75482</v>
+        <v>76281</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08027296259648892</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06230091072911625</v>
+        <v>0.06363564611546894</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1000626332343218</v>
+        <v>0.1011219518612086</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>181</v>
@@ -2979,19 +2979,19 @@
         <v>208463</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>185508</v>
+        <v>182907</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>236909</v>
+        <v>235887</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2095818611104521</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1865040307349096</v>
+        <v>0.1838889821235618</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2381808438170741</v>
+        <v>0.2371531730451071</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>245</v>
@@ -3000,19 +3000,19 @@
         <v>269016</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>241260</v>
+        <v>241153</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>304425</v>
+        <v>303237</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1538109272649788</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1379410203571272</v>
+        <v>0.1378799164386997</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1740558960364869</v>
+        <v>0.1733768060353515</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>693793</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>678865</v>
+        <v>678066</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>707350</v>
+        <v>706344</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.919727037403511</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8999373667656783</v>
+        <v>0.8988780481387911</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9376990892708836</v>
+        <v>0.936364353884531</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>711</v>
@@ -3050,19 +3050,19 @@
         <v>786197</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>757751</v>
+        <v>758773</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>809152</v>
+        <v>811753</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7904181388895479</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7618191561829259</v>
+        <v>0.7628468269548928</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8134959692650904</v>
+        <v>0.8161110178764381</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1409</v>
@@ -3071,19 +3071,19 @@
         <v>1479991</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1444582</v>
+        <v>1445770</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1507747</v>
+        <v>1507854</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8461890727350212</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8259441039635131</v>
+        <v>0.8266231939646486</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8620589796428729</v>
+        <v>0.8621200835613003</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>49942</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37731</v>
+        <v>36778</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66326</v>
+        <v>66154</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02405244640285682</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01817138941944822</v>
+        <v>0.0177126359797816</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03194314084050889</v>
+        <v>0.0318599608477635</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>95</v>
@@ -3196,19 +3196,19 @@
         <v>105693</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>86138</v>
+        <v>86477</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>127983</v>
+        <v>127961</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05315771023383931</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04332264558703202</v>
+        <v>0.04349283650104705</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06436798659831239</v>
+        <v>0.06435716916320472</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>142</v>
@@ -3217,19 +3217,19 @@
         <v>155636</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>131006</v>
+        <v>131598</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>183487</v>
+        <v>183081</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03828971141353472</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03223017782926815</v>
+        <v>0.03237602109991616</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04514178074719767</v>
+        <v>0.0450417672694844</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2026443</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2010059</v>
+        <v>2010231</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2038654</v>
+        <v>2039607</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9759475535971431</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9680568591594911</v>
+        <v>0.9681400391522363</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9818286105805518</v>
+        <v>0.9822873640202184</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1813</v>
@@ -3267,19 +3267,19 @@
         <v>1882607</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1860317</v>
+        <v>1860339</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1902162</v>
+        <v>1901823</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9468422897661607</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9356320134016878</v>
+        <v>0.9356428308367956</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9566773544129682</v>
+        <v>0.956507163498953</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3718</v>
@@ -3288,19 +3288,19 @@
         <v>3909049</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3881198</v>
+        <v>3881604</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3933679</v>
+        <v>3933087</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9617102885864652</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9548582192528023</v>
+        <v>0.9549582327305156</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9677698221707318</v>
+        <v>0.9676239789000839</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>9417</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4197</v>
+        <v>4492</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19308</v>
+        <v>20472</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.017219625842844</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007675079305679715</v>
+        <v>0.008214010346716314</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03530549045094623</v>
+        <v>0.03743375636974563</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -3413,19 +3413,19 @@
         <v>16897</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9590</v>
+        <v>9869</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27593</v>
+        <v>26899</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03076952693593822</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0174637168194607</v>
+        <v>0.0179726205262833</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05024843500636833</v>
+        <v>0.04898378069230278</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -3434,19 +3434,19 @@
         <v>26314</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16925</v>
+        <v>16765</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39202</v>
+        <v>39872</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02400851009243795</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.015442487244737</v>
+        <v>0.01529597566633301</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0357671581281666</v>
+        <v>0.03637827306723244</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>537469</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>527578</v>
+        <v>526414</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>542689</v>
+        <v>542394</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.982780374157156</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9646945095490539</v>
+        <v>0.9625662436302551</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9923249206943207</v>
+        <v>0.9917859896532837</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>511</v>
@@ -3484,19 +3484,19 @@
         <v>532243</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>521547</v>
+        <v>522241</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>539550</v>
+        <v>539271</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9692304730640617</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9497515649936317</v>
+        <v>0.9510162193076973</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9825362831805393</v>
+        <v>0.9820273794737169</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1005</v>
@@ -3505,19 +3505,19 @@
         <v>1069713</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1056825</v>
+        <v>1056155</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1079102</v>
+        <v>1079262</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.975991489907562</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9642328418718334</v>
+        <v>0.9636217269327676</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.984557512755263</v>
+        <v>0.984704024333667</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>119913</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>98566</v>
+        <v>98602</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>144118</v>
+        <v>142995</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03550222882795695</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02918198253514017</v>
+        <v>0.02919273880911187</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04266851771281261</v>
+        <v>0.04233618984612615</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>291</v>
@@ -3630,19 +3630,19 @@
         <v>331053</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>296628</v>
+        <v>294127</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>369978</v>
+        <v>367959</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09372694573576934</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08398053849066597</v>
+        <v>0.08327248308068252</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1047473800837776</v>
+        <v>0.1041756586283394</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>409</v>
@@ -3651,19 +3651,19 @@
         <v>450966</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>407600</v>
+        <v>409592</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>495796</v>
+        <v>494677</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06526546099244114</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0589893141863434</v>
+        <v>0.05927768164435388</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07175345996195183</v>
+        <v>0.07159145682194219</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3257705</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3233500</v>
+        <v>3234623</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3279052</v>
+        <v>3279016</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9644977711720431</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9573314822871872</v>
+        <v>0.9576638101538738</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9708180174648597</v>
+        <v>0.9708072611908881</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3035</v>
@@ -3701,19 +3701,19 @@
         <v>3201047</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3162122</v>
+        <v>3164141</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3235472</v>
+        <v>3237973</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9062730542642307</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8952526199162224</v>
+        <v>0.8958243413716608</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.916019461509334</v>
+        <v>0.9167275169193174</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6132</v>
@@ -3722,19 +3722,19 @@
         <v>6458752</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6413922</v>
+        <v>6415041</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6502118</v>
+        <v>6500126</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9347345390075589</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9282465400380483</v>
+        <v>0.9284085431780581</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9410106858136567</v>
+        <v>0.9407223183556463</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>69681</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56646</v>
+        <v>57132</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84414</v>
+        <v>83410</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1215908719541405</v>
+        <v>0.1215908719541404</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09884633171789953</v>
+        <v>0.09969336086640994</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1473010380535119</v>
+        <v>0.1455488064172127</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>507</v>
@@ -4086,19 +4086,19 @@
         <v>268291</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>250087</v>
+        <v>247638</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>289243</v>
+        <v>290089</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3286242373406141</v>
+        <v>0.328624237340614</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.306326689317084</v>
+        <v>0.3033267532283914</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3542882934925419</v>
+        <v>0.3553250002670796</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>608</v>
@@ -4107,19 +4107,19 @@
         <v>337971</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>314175</v>
+        <v>314902</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>362281</v>
+        <v>364886</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2432358892735683</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2261097969451573</v>
+        <v>0.2266330378146922</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2607314135932756</v>
+        <v>0.2626065939240162</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>503393</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>488660</v>
+        <v>489664</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>516428</v>
+        <v>515942</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8784091280458596</v>
+        <v>0.8784091280458595</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8526989619464882</v>
+        <v>0.8544511935827872</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9011536682821006</v>
+        <v>0.90030663913359</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>912</v>
@@ -4157,19 +4157,19 @@
         <v>548115</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>527163</v>
+        <v>526317</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>566319</v>
+        <v>568768</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6713757626593859</v>
+        <v>0.671375762659386</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6457117065074581</v>
+        <v>0.6446749997329205</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.693673310682916</v>
+        <v>0.6966732467716087</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1497</v>
@@ -4178,19 +4178,19 @@
         <v>1051508</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1027198</v>
+        <v>1024593</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1075304</v>
+        <v>1074577</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7567641107264318</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7392685864067244</v>
+        <v>0.7373934060759837</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7738902030548429</v>
+        <v>0.7733669621853081</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>97150</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80586</v>
+        <v>80260</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>116920</v>
+        <v>118652</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04359228172575047</v>
+        <v>0.04359228172575046</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03615977326238139</v>
+        <v>0.03601362312914424</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05246357840901156</v>
+        <v>0.05324070655214738</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>361</v>
@@ -4303,19 +4303,19 @@
         <v>208682</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>188565</v>
+        <v>187101</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>232279</v>
+        <v>233459</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09652870942003466</v>
+        <v>0.09652870942003469</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08722329201916489</v>
+        <v>0.08654606488643975</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1074438578676882</v>
+        <v>0.1079899932455851</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>478</v>
@@ -4324,19 +4324,19 @@
         <v>305831</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>277246</v>
+        <v>277219</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>337325</v>
+        <v>338017</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06965815356043745</v>
+        <v>0.06965815356043746</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06314734744247294</v>
+        <v>0.06314117780639478</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07683138233670227</v>
+        <v>0.07698884181653973</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2131450</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2111680</v>
+        <v>2109948</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2148014</v>
+        <v>2148340</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9564077182742494</v>
+        <v>0.9564077182742492</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9475364215909884</v>
+        <v>0.9467592934478527</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9638402267376186</v>
+        <v>0.963986376870856</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2546</v>
@@ -4374,19 +4374,19 @@
         <v>1953179</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1929582</v>
+        <v>1928402</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1973296</v>
+        <v>1974760</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9034712905799653</v>
+        <v>0.9034712905799656</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8925561421323117</v>
+        <v>0.892010006754415</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9127767079808351</v>
+        <v>0.9134539351135604</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4419</v>
@@ -4395,19 +4395,19 @@
         <v>4084630</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4053136</v>
+        <v>4052444</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4113215</v>
+        <v>4113242</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9303418464395624</v>
+        <v>0.9303418464395626</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9231686176632969</v>
+        <v>0.9230111581834604</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9368526525575268</v>
+        <v>0.9368588221936049</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>18277</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11196</v>
+        <v>11311</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26832</v>
+        <v>28549</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02571859867503339</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01575475721381095</v>
+        <v>0.0159172949143376</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03775761899502857</v>
+        <v>0.04017411273404918</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -4520,19 +4520,19 @@
         <v>56432</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44856</v>
+        <v>44810</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69362</v>
+        <v>68560</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07693579811528764</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06115439367191999</v>
+        <v>0.06109089737959982</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09456476032939815</v>
+        <v>0.09347034682917471</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>110</v>
@@ -4541,19 +4541,19 @@
         <v>74708</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61760</v>
+        <v>61411</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>92318</v>
+        <v>90285</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05173245494471249</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04276662073837421</v>
+        <v>0.04252476774709654</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06392664295013385</v>
+        <v>0.06251865339240856</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>692360</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>683805</v>
+        <v>682088</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>699441</v>
+        <v>699326</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9742814013249668</v>
+        <v>0.9742814013249664</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9622423810049708</v>
+        <v>0.9598258872659492</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9842452427861884</v>
+        <v>0.9840827050856624</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>914</v>
@@ -4591,19 +4591,19 @@
         <v>677059</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>664129</v>
+        <v>664931</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>688635</v>
+        <v>688681</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9230642018847124</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9054352396706017</v>
+        <v>0.9065296531708251</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9388456063280798</v>
+        <v>0.9389091026204001</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1572</v>
@@ -4612,19 +4612,19 @@
         <v>1369420</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1351810</v>
+        <v>1353843</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1382368</v>
+        <v>1382717</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9482675450552875</v>
+        <v>0.9482675450552874</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9360733570498659</v>
+        <v>0.9374813466075914</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9572333792616258</v>
+        <v>0.9574752322529034</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>185107</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>161491</v>
+        <v>164319</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>210725</v>
+        <v>213330</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05270230116165832</v>
+        <v>0.05270230116165831</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04597865840672938</v>
+        <v>0.0467836997436436</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0599960404146356</v>
+        <v>0.06073780504159204</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>956</v>
@@ -4737,19 +4737,19 @@
         <v>533404</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>496870</v>
+        <v>500582</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>565609</v>
+        <v>570091</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1437066058797792</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1338637927808997</v>
+        <v>0.1348639644444</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1523829832333568</v>
+        <v>0.1535905847466245</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1196</v>
@@ -4758,19 +4758,19 @@
         <v>718511</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>675391</v>
+        <v>678071</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>761865</v>
+        <v>762840</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0994607040948184</v>
+        <v>0.09946070409481841</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09349175489455659</v>
+        <v>0.09386273055764627</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1054620598459349</v>
+        <v>0.1055969466859657</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3327204</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3301586</v>
+        <v>3298981</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3350820</v>
+        <v>3347992</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9472976988383417</v>
+        <v>0.9472976988383416</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9400039595853645</v>
+        <v>0.9392621949584078</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9540213415932709</v>
+        <v>0.9532163002563563</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4372</v>
@@ -4808,19 +4808,19 @@
         <v>3178353</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3146148</v>
+        <v>3141666</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3214887</v>
+        <v>3211175</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8562933941202208</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8476170167666435</v>
+        <v>0.8464094152533754</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8661362072191002</v>
+        <v>0.8651360355555999</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7488</v>
@@ -4829,19 +4829,19 @@
         <v>6505557</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6462203</v>
+        <v>6461228</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6548677</v>
+        <v>6545997</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9005392959051817</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8945379401540653</v>
+        <v>0.8944030533140342</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9065082451054435</v>
+        <v>0.9061372694423536</v>
       </c>
     </row>
     <row r="15">
